--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/ChangingPaymentTypeByDriversReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/ChangingPaymentTypeByDriversReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NewReleaseVodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DCA3B-BD11-406E-B74F-77D0D8864538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD68556F-136E-4886-9979-3224BA5084DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="4650" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -186,6 +186,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -197,18 +209,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +427,7 @@
   <dimension ref="A1:AMD12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -442,14 +442,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1018" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:1018" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -458,10 +458,10 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:1018" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -471,7 +471,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:1018" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1018" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -491,26 +491,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1018" s="17" customFormat="1" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:1018" s="13" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1523,7 +1523,7 @@
       <c r="AMC5" s="4"/>
       <c r="AMD5" s="4"/>
     </row>
-    <row r="6" spans="1:1018" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1018" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
